--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2324732.752245475</v>
+        <v>2324036.091040384</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114768</v>
+        <v>612367.9462114755</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6284739.61364381</v>
+        <v>6284739.613643808</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>31.34282090790192</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>100.8062759553368</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>92.62913180164878</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -837,7 +837,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>89.98740556141433</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -907,16 +907,16 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>258.0088614831251</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>279.2866228785253</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1062,7 +1062,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -1071,7 +1071,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>105.5045976913267</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1113,16 +1113,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>175.5259272438727</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>318.0649750960278</v>
+        <v>17.02957409173682</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>79.68036568810925</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486149</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.631722686833</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068499</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.7171704536212</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924939</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.295671786446</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407057</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396368</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.3236211855912</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.771360309552</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250132</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026567</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439304</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446587</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.2643090249452</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898733</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.6836051444972</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>7.391625698034771</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831854</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087104</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712697</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969876</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060567</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.9059542963592</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146989</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886531</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271555</v>
+        <v>157.0860622474451</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486149</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C14" t="n">
-        <v>422.631722686833</v>
+        <v>422.6317226868333</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068499</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536212</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924939</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G14" t="n">
-        <v>400.295671786446</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407057</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396368</v>
+        <v>34.54790254396354</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.3236211855912</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.771360309552</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250132</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026567</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439304</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446587</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.2643090249452</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898733</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.6836051444972</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831854</v>
+        <v>5.041219488028854</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087104</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069273</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969876</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.9059542963592</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>137.516623699778</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892123</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886531</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271555</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486149</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.631722686833</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068499</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.7171704536212</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924939</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.295671786446</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407057</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396368</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855912</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.771360309552</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250132</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026567</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439304</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446587</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.2643090249452</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898733</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.5461237886751</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831854</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069273</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>86.77998870336826</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969876</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060567</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.9059542963592</v>
+        <v>172.7557593945127</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146989</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180516</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271555</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486149</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.631722686833</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068499</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.7171704536212</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924939</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.295671786446</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407057</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396368</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855912</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.771360309552</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.9145207250132</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026567</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439304</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446575</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.2643090249452</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>121.3579328399085</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831854</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712697</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969876</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.9059542963592</v>
+        <v>172.7557593945127</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146989</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180516</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892123</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886531</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271555</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.2643090249452</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898733</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.6836051444972</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831854</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069273</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712697</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969876</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>164.5840460019627</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.9059542963592</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180516</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892123</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271555</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2718,19 +2718,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>35.01770792892769</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2809,7 +2809,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407046</v>
       </c>
       <c r="I29" t="n">
         <v>34.5479025439635</v>
@@ -2952,19 +2952,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>140.3537972547007</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>168.1487656894605</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3243,19 +3243,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>169.9835185437313</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3480,19 +3480,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>57.49259391390198</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>152.0898487279629</v>
       </c>
     </row>
     <row r="38">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3669,19 +3669,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>140.7881002138958</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>115.7436775988082</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3900,10 +3900,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>102.1509188080621</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>86.0913734287199</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4146,13 +4146,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>2.73831248582095</v>
+        <v>75.76164412032512</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>826.0424325316595</v>
+        <v>572.7938045089716</v>
       </c>
       <c r="C2" t="n">
-        <v>803.1821065853637</v>
+        <v>549.9334785626758</v>
       </c>
       <c r="D2" t="n">
-        <v>379.8894857703639</v>
+        <v>530.6812617880801</v>
       </c>
       <c r="E2" t="n">
-        <v>357.9529499586255</v>
+        <v>499.0218467295933</v>
       </c>
       <c r="F2" t="n">
-        <v>336.8691721884298</v>
+        <v>73.89766491899348</v>
       </c>
       <c r="G2" t="n">
-        <v>336.5705138182825</v>
+        <v>73.59900654884618</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231737</v>
+        <v>73.59900654884618</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231737</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="J2" t="n">
-        <v>401.3055941092128</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="K2" t="n">
-        <v>401.3055941092128</v>
+        <v>880.2445183516406</v>
       </c>
       <c r="L2" t="n">
-        <v>401.3055941092128</v>
+        <v>880.2445183516406</v>
       </c>
       <c r="M2" t="n">
-        <v>401.3055941092128</v>
+        <v>880.2445183516406</v>
       </c>
       <c r="N2" t="n">
-        <v>859.6725812491109</v>
+        <v>882.5260259873564</v>
       </c>
       <c r="O2" t="n">
-        <v>1338.611505491538</v>
+        <v>1361.464950229784</v>
       </c>
       <c r="P2" t="n">
-        <v>1817.550429733966</v>
+        <v>1361.464950229784</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733966</v>
+        <v>1817.550429733967</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615868</v>
+        <v>1935.10676461587</v>
       </c>
       <c r="S2" t="n">
-        <v>1935.106764615868</v>
+        <v>1830.73947048901</v>
       </c>
       <c r="T2" t="n">
-        <v>1714.181193660502</v>
+        <v>1609.813899533643</v>
       </c>
       <c r="U2" t="n">
-        <v>1612.356672493495</v>
+        <v>1351.458990130056</v>
       </c>
       <c r="V2" t="n">
-        <v>1254.867257619744</v>
+        <v>993.969575256305</v>
       </c>
       <c r="W2" t="n">
-        <v>1254.867257619744</v>
+        <v>597.5782255566519</v>
       </c>
       <c r="X2" t="n">
-        <v>1247.187662827895</v>
+        <v>589.8986307648032</v>
       </c>
       <c r="Y2" t="n">
-        <v>1245.89079682319</v>
+        <v>588.6017647600976</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.8256263237726</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>488.3197228412773</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
         <v>384.4797643565624</v>
@@ -4400,34 +4400,34 @@
         <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000778</v>
+        <v>92.07822853000781</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231737</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231737</v>
+        <v>46.14877825422924</v>
       </c>
       <c r="J3" t="n">
-        <v>38.70213529231737</v>
+        <v>317.8462675338203</v>
       </c>
       <c r="K3" t="n">
-        <v>517.6410595347447</v>
+        <v>317.8462675338203</v>
       </c>
       <c r="L3" t="n">
-        <v>996.5799837771722</v>
+        <v>796.785191776248</v>
       </c>
       <c r="M3" t="n">
-        <v>1368.4508416304</v>
+        <v>796.785191776248</v>
       </c>
       <c r="N3" t="n">
-        <v>1368.4508416304</v>
+        <v>796.785191776248</v>
       </c>
       <c r="O3" t="n">
-        <v>1847.389765872827</v>
+        <v>1275.724116018676</v>
       </c>
       <c r="P3" t="n">
-        <v>1847.389765872827</v>
+        <v>1754.663040261103</v>
       </c>
       <c r="Q3" t="n">
         <v>1847.389765872827</v>
@@ -4451,10 +4451,10 @@
         <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>874.4455243905429</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>734.7526357438353</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>941.1492845853445</v>
+        <v>442.3201530875559</v>
       </c>
       <c r="C4" t="n">
-        <v>769.1767214642605</v>
+        <v>442.3201530875559</v>
       </c>
       <c r="D4" t="n">
-        <v>605.8599485910312</v>
+        <v>442.3201530875559</v>
       </c>
       <c r="E4" t="n">
-        <v>439.6517427438847</v>
+        <v>442.3201530875559</v>
       </c>
       <c r="F4" t="n">
-        <v>439.6517427438847</v>
+        <v>348.7553734899309</v>
       </c>
       <c r="G4" t="n">
-        <v>273.3947730381169</v>
+        <v>182.498403784163</v>
       </c>
       <c r="H4" t="n">
-        <v>129.5985045462712</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231737</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647539</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223126</v>
+        <v>38.71266663273622</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167334</v>
+        <v>393.401987927157</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974064</v>
+        <v>784.5877828974078</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773442</v>
+        <v>1162.079293773444</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453205</v>
+        <v>1517.507422453207</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375106</v>
+        <v>1808.106634375108</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615868</v>
+        <v>1935.10676461587</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615868</v>
+        <v>1935.10676461587</v>
       </c>
       <c r="S4" t="n">
-        <v>1935.106764615868</v>
+        <v>1764.971717135005</v>
       </c>
       <c r="T4" t="n">
-        <v>1691.767416841768</v>
+        <v>1521.632369360905</v>
       </c>
       <c r="U4" t="n">
-        <v>1691.767416841768</v>
+        <v>1241.447920861209</v>
       </c>
       <c r="V4" t="n">
-        <v>1410.055949449797</v>
+        <v>959.7364534692379</v>
       </c>
       <c r="W4" t="n">
-        <v>1410.055949449797</v>
+        <v>684.8840496417508</v>
       </c>
       <c r="X4" t="n">
-        <v>1167.492052895602</v>
+        <v>442.3201530875559</v>
       </c>
       <c r="Y4" t="n">
-        <v>941.1492845853445</v>
+        <v>442.3201530875559</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>938.0105478030285</v>
+        <v>1212.438652888478</v>
       </c>
       <c r="C5" t="n">
-        <v>915.1502218567327</v>
+        <v>785.5379229017781</v>
       </c>
       <c r="D5" t="n">
-        <v>491.857601041733</v>
+        <v>362.2453020867783</v>
       </c>
       <c r="E5" t="n">
-        <v>469.9210652299946</v>
+        <v>340.3087662750399</v>
       </c>
       <c r="F5" t="n">
-        <v>448.8372874597989</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4570,25 +4570,25 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O5" t="n">
-        <v>1508.432753835019</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4609,10 +4609,10 @@
         <v>1641.263477976562</v>
       </c>
       <c r="X5" t="n">
-        <v>1359.155778099264</v>
+        <v>1633.583883184714</v>
       </c>
       <c r="Y5" t="n">
-        <v>1357.858912094558</v>
+        <v>1632.287017180008</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
         <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>595.1637600336857</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="N6" t="n">
-        <v>1145.829295018124</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="O6" t="n">
-        <v>1145.829295018124</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>789.4985786052539</v>
+        <v>918.4808166588646</v>
       </c>
       <c r="C7" t="n">
-        <v>789.4985786052539</v>
+        <v>918.4808166588646</v>
       </c>
       <c r="D7" t="n">
-        <v>626.1818057320246</v>
+        <v>755.1640437856353</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>588.9558379384888</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>417.0940637130492</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>250.8370940072813</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4743,34 +4743,34 @@
         <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V7" t="n">
-        <v>1306.914878986936</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W7" t="n">
-        <v>1032.062475159449</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X7" t="n">
-        <v>789.4985786052539</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="Y7" t="n">
-        <v>789.4985786052539</v>
+        <v>918.4808166588646</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>854.9492380147275</v>
+        <v>1287.678729207029</v>
       </c>
       <c r="C8" t="n">
-        <v>832.0889120684317</v>
+        <v>1264.818403260733</v>
       </c>
       <c r="D8" t="n">
-        <v>812.836695293836</v>
+        <v>841.5257824457331</v>
       </c>
       <c r="E8" t="n">
-        <v>386.8597554416936</v>
+        <v>819.5892466339947</v>
       </c>
       <c r="F8" t="n">
-        <v>365.7759776714979</v>
+        <v>394.4650648233949</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,22 +4807,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>572.914647509062</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>1123.5801824935</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>1123.5801824935</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>1674.245717477938</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
-        <v>2224.911252462377</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4834,22 +4834,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>1641.263477976562</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>1283.774063102812</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W8" t="n">
-        <v>1283.774063102812</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X8" t="n">
-        <v>872.0540642705591</v>
+        <v>2112.864363543668</v>
       </c>
       <c r="Y8" t="n">
-        <v>870.7571982658535</v>
+        <v>1707.527093498559</v>
       </c>
     </row>
     <row r="9">
@@ -4895,13 +4895,13 @@
         <v>44.49822504924753</v>
       </c>
       <c r="N9" t="n">
-        <v>287.7093087981016</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O9" t="n">
-        <v>838.3748437825398</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P9" t="n">
-        <v>1389.040378766978</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>955.7067844524004</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
         <v>955.7067844524004</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1727.553143168988</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1647.067925302211</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1372.215521474724</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1372.215521474724</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>1145.872753164466</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988743</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623576</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
         <v>1180.414480198223</v>
@@ -5050,43 +5050,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2988.069926596604</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N11" t="n">
-        <v>2988.069926596604</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O11" t="n">
-        <v>3833.214576747416</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P11" t="n">
-        <v>4541.493855905343</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409527</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291429</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164569</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.842805209202</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>4531.487895805613</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399957</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5108,34 +5108,34 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>249.732578425915</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
         <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>946.5481644506466</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N12" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O12" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P12" t="n">
         <v>1364.825557038856</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>882.9456501749477</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="C13" t="n">
-        <v>710.9730870538635</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="D13" t="n">
-        <v>547.6563141806341</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="E13" t="n">
-        <v>540.1900255967606</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F13" t="n">
-        <v>368.3282513713208</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G13" t="n">
-        <v>202.0712816655528</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655528</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299864</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358235</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>741.010964130244</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
         <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1509.68826997653</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1865.116398656293</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2155.715610578194</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2282.715740818956</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.677127506128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025263</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251163</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751467</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>1542.018283751467</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W13" t="n">
-        <v>1542.018283751467</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X13" t="n">
-        <v>1299.454387197272</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y13" t="n">
-        <v>1073.111618887013</v>
+        <v>584.2177258288816</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988743</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623576</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I14" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
         <v>1180.414480198223</v>
@@ -5287,43 +5287,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2837.654482149733</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>3813.905540636434</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O14" t="n">
-        <v>4659.050190787246</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P14" t="n">
-        <v>4659.050190787246</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>5115.135670291429</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291429</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164569</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.842805209202</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>4531.487895805614</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931864</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232211</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399957</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5345,34 +5345,34 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>249.732578425915</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058286</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>374.0002026854197</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>374.0002026854197</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>1210.799010768326</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>1210.799010768326</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>1210.799010768326</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O15" t="n">
-        <v>1210.799010768326</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P15" t="n">
         <v>1364.825557038856</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>919.5070618231958</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C16" t="n">
-        <v>747.5344987021117</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="D16" t="n">
-        <v>584.2177258288822</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="E16" t="n">
-        <v>584.2177258288822</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="F16" t="n">
-        <v>412.3559516034424</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G16" t="n">
-        <v>246.0989818976744</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H16" t="n">
-        <v>102.3027134058286</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299864</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358235</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
-        <v>741.010964130244</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
         <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1509.68826997653</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1865.116398656293</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2155.715610578194</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.715740818956</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.677127506128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2235.677127506128</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>1992.337779732028</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1853.432099227202</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>1853.432099227202</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W16" t="n">
-        <v>1578.579695399715</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X16" t="n">
-        <v>1336.01579884552</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y16" t="n">
-        <v>1109.673030535262</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988742</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883229</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623576</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>188.2350251358979</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>903.743333111397</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1833.368380730674</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2837.654482149732</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3813.905540636433</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4659.050190787245</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787245</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291428</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291428</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164569</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209202</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805614</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931863</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.60713123221</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399957</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5582,37 +5582,37 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>249.732578425915</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854197</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854197</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L18" t="n">
-        <v>374.0002026854197</v>
+        <v>390.8583291475138</v>
       </c>
       <c r="M18" t="n">
-        <v>1429.986740661465</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N18" t="n">
-        <v>1429.986740661465</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>843.7980793371713</v>
+        <v>612.3940204581199</v>
       </c>
       <c r="C19" t="n">
-        <v>671.8255162160872</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="D19" t="n">
-        <v>671.8255162160872</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="E19" t="n">
-        <v>505.6173103689406</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F19" t="n">
-        <v>333.7555361435009</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
-        <v>333.7555361435009</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>189.9592676516551</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299864</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358234</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>741.010964130244</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
         <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.68826997653</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656293</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578194</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818956</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.677127506128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025263</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251163</v>
+        <v>2108.214973753792</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751467</v>
+        <v>1828.030525254097</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359495</v>
+        <v>1546.319057862125</v>
       </c>
       <c r="W19" t="n">
-        <v>1260.306816359495</v>
+        <v>1271.466654034638</v>
       </c>
       <c r="X19" t="n">
-        <v>1260.306816359495</v>
+        <v>1028.902757480444</v>
       </c>
       <c r="Y19" t="n">
-        <v>1033.964048049237</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988745</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883229</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623575</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5755,13 +5755,13 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
         <v>2988.069926596602</v>
@@ -5831,28 +5831,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1199.06430284061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1199.06430284061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>496.5168264363546</v>
+        <v>612.3940204581201</v>
       </c>
       <c r="C22" t="n">
-        <v>496.5168264363546</v>
+        <v>440.421457337036</v>
       </c>
       <c r="D22" t="n">
-        <v>496.5168264363546</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E22" t="n">
-        <v>373.9330558909925</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F22" t="n">
-        <v>202.0712816655528</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>202.0712816655528</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655528</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299864</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358234</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>741.010964130244</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
         <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.68826997653</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656293</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578194</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818956</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.677127506128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2235.677127506128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>1992.337779732028</v>
+        <v>2108.214973753792</v>
       </c>
       <c r="U22" t="n">
-        <v>1712.153331232332</v>
+        <v>1828.030525254097</v>
       </c>
       <c r="V22" t="n">
-        <v>1430.441863840361</v>
+        <v>1546.319057862125</v>
       </c>
       <c r="W22" t="n">
-        <v>1155.589460012874</v>
+        <v>1271.466654034638</v>
       </c>
       <c r="X22" t="n">
-        <v>913.0255634586786</v>
+        <v>1028.902757480444</v>
       </c>
       <c r="Y22" t="n">
-        <v>686.6827951484204</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
     <row r="23">
@@ -5992,19 +5992,19 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>786.1869982294937</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2720.098147267829</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
         <v>4541.493855905342</v>
@@ -6068,28 +6068,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>946.5481644506465</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>853.0186603771518</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>681.0460972560677</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>517.7293243828383</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>517.7293243828383</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
-        <v>345.8675501573986</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573986</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655528</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299864</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358234</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>741.010964130244</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
         <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.68826997653</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656293</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578194</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818956</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.677127506128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2069.430616393035</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1826.091268618934</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1826.091268618934</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1544.379801226963</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1269.527397399476</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>1269.527397399476</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>1043.184629089218</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6232,19 +6232,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2467.904347614084</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3444.155406100785</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4289.300056251597</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q26" t="n">
         <v>4997.579335409525</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1828.582799500206</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
         <v>1828.971033901635</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>616.7597400424195</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>444.7871769213355</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>281.4704040481062</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>281.4704040481062</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2112.580693338092</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1832.396244838396</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1550.684777446425</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1275.832373618938</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1033.268477064743</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>806.9257087544852</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6448,52 +6448,52 @@
         <v>1690.508147261616</v>
       </c>
       <c r="E29" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988727</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883213</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3444.155406100785</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4289.300056251597</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6545,25 +6545,25 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>1218.245653730238</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>598.0846618319722</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>598.0846618319722</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>434.7678889587429</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
         <v>102.3027134058285</v>
@@ -6621,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>2093.905615127645</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1813.721166627949</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1532.009699235978</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1257.157295408491</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>1014.593398854296</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>788.2506305440379</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>188.235025135897</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K32" t="n">
-        <v>903.7433331113961</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1833.368380730673</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2837.654482149731</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3813.905540636432</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4659.050190787244</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6742,7 +6742,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y32" t="n">
         <v>2960.549862354846</v>
@@ -6788,16 +6788,16 @@
         <v>964.4851292537592</v>
       </c>
       <c r="M33" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1822.202732251165</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1650.502208469618</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>1375.649804642131</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>1375.649804642131</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="35">
@@ -6937,16 +6937,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2988.069926596601</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N35" t="n">
         <v>2988.069926596601</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1013.511272808981</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1764.129405065405</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1482.417937673434</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>1482.417937673434</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>1239.854041119239</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>1013.511272808981</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7180,22 +7180,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N38" t="n">
-        <v>3114.325629236558</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O38" t="n">
-        <v>3959.47027938737</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905341</v>
+        <v>4714.375569412722</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291426</v>
@@ -7268,13 +7268,13 @@
         <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1861.413050227143</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1861.413050227143</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1861.413050227143</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>851.4325941215639</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C40" t="n">
-        <v>679.4600310004798</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D40" t="n">
-        <v>516.1432581272505</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E40" t="n">
-        <v>373.9330558909921</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F40" t="n">
-        <v>202.0712816655526</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G40" t="n">
-        <v>202.0712816655526</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2165.802935163595</v>
       </c>
       <c r="T40" t="n">
-        <v>2065.542080025265</v>
+        <v>1922.463587389495</v>
       </c>
       <c r="U40" t="n">
-        <v>1785.357631525569</v>
+        <v>1642.279138889799</v>
       </c>
       <c r="V40" t="n">
-        <v>1785.357631525569</v>
+        <v>1360.567671497828</v>
       </c>
       <c r="W40" t="n">
-        <v>1510.505227698082</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="X40" t="n">
-        <v>1267.941331143888</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="Y40" t="n">
-        <v>1041.59856283363</v>
+        <v>1085.715267670341</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7411,28 +7411,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747413</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905341</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R41" t="n">
         <v>5115.135670291426</v>
@@ -7453,7 +7453,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
         <v>2960.549862354846</v>
@@ -7487,31 +7487,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P42" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>543.5554397491844</v>
+        <v>756.1415250913442</v>
       </c>
       <c r="C43" t="n">
-        <v>543.5554397491844</v>
+        <v>584.1689619702602</v>
       </c>
       <c r="D43" t="n">
-        <v>440.3726934784146</v>
+        <v>584.1689619702602</v>
       </c>
       <c r="E43" t="n">
-        <v>274.1644876312681</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F43" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G43" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H43" t="n">
         <v>102.3027134058285</v>
@@ -7596,25 +7596,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>2039.376393044857</v>
+        <v>2025.619710076759</v>
       </c>
       <c r="U43" t="n">
-        <v>1759.191944545161</v>
+        <v>1745.435261577063</v>
       </c>
       <c r="V43" t="n">
-        <v>1477.48047715319</v>
+        <v>1463.723794185092</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.628073325703</v>
+        <v>1188.871390357605</v>
       </c>
       <c r="X43" t="n">
-        <v>960.064176771508</v>
+        <v>946.3074938034099</v>
       </c>
       <c r="Y43" t="n">
-        <v>733.72140846125</v>
+        <v>946.3074938034099</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
         <v>137.1995846623573</v>
@@ -7648,37 +7648,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L44" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M44" t="n">
-        <v>3105.626261478504</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N44" t="n">
-        <v>3105.626261478504</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O44" t="n">
-        <v>3950.770911629316</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
@@ -7690,7 +7690,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
         <v>2960.549862354846</v>
@@ -7724,28 +7724,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M45" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N45" t="n">
-        <v>1782.102586447038</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O45" t="n">
-        <v>1782.102586447038</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P45" t="n">
-        <v>1782.102586447038</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
         <v>1828.971033901635</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>606.5662274551883</v>
+        <v>818.4078435766714</v>
       </c>
       <c r="C46" t="n">
-        <v>434.5936643341042</v>
+        <v>818.4078435766714</v>
       </c>
       <c r="D46" t="n">
-        <v>271.2768914608749</v>
+        <v>655.0910707034421</v>
       </c>
       <c r="E46" t="n">
-        <v>105.0686856137285</v>
+        <v>488.8828648562957</v>
       </c>
       <c r="F46" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G46" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H46" t="n">
         <v>102.3027134058285</v>
@@ -7806,10 +7806,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>1822.202732251165</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V46" t="n">
-        <v>1540.491264859194</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W46" t="n">
-        <v>1265.638861031707</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="X46" t="n">
-        <v>1023.074964477512</v>
+        <v>1234.916580598995</v>
       </c>
       <c r="Y46" t="n">
-        <v>796.7321961672538</v>
+        <v>1008.573812288737</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487768</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
@@ -7990,16 +7990,16 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>500.2765795414137</v>
+        <v>39.58417600183571</v>
       </c>
       <c r="O2" t="n">
-        <v>521.1676505099912</v>
+        <v>521.1676505099915</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641984</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8054,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>506.1759249873004</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681966</v>
+        <v>506.291777868197</v>
       </c>
       <c r="M3" t="n">
-        <v>398.7239096570023</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761893</v>
+        <v>506.9485808761896</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>505.5475323587961</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>116.41039749274</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8136,16 +8136,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.97529217030677</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>130.8354367406506</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8218,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>205.7998844961774</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>181.8548408418185</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,25 +8297,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>98.5227558077745</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>184.5908146029608</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8391,7 +8391,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.9153581548562</v>
+        <v>315.915358154857</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8455,7 +8455,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>203.2524428583638</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>594.539855548217</v>
@@ -8464,16 +8464,16 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>203.6125166681525</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8543,7 +8543,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>267.0107895760205</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
         <v>579.3997028378163</v>
@@ -8552,7 +8552,7 @@
         <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>181.0208015487716</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8698,7 +8698,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>924.3306556055974</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N11" t="n">
         <v>37.27962283444602</v>
@@ -8768,16 +8768,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>445.5991972680948</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8786,7 +8786,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
@@ -8935,22 +8935,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>772.3958632350208</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>625.4779643536363</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -9020,10 +9020,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>420.03429863453</v>
       </c>
       <c r="P15" t="n">
-        <v>177.3532111750609</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.2202743644444</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9184,10 +9184,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798516</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>39.5434972820015</v>
       </c>
       <c r="M18" t="n">
         <v>1089.749849175</v>
@@ -9257,13 +9257,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>509.0341153029024</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9403,16 +9403,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>660.9541399377149</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9479,10 +9479,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9491,19 +9491,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>740.8880544833419</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,22 +9640,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>360.2906876703342</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
@@ -9716,16 +9716,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>273.8487628327258</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
@@ -9734,13 +9734,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9892,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
@@ -9968,13 +9968,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>22.16299716586774</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>106.5207073584907</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10123,19 +10123,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>370.4410136063929</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,13 +10193,13 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>254.0050768692183</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
@@ -10208,13 +10208,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.2202743644436</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10363,10 +10363,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>611.7910214708218</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10436,7 +10436,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>510.3288389666712</v>
+        <v>979.1626539795797</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
@@ -10448,7 +10448,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,10 +10594,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>924.3306556055946</v>
+        <v>304.4845953330639</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>474.5964003263119</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10676,19 +10676,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,25 +10828,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>625.4779643536363</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>440.9328573103599</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>73.75099389838205</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11074,16 +11074,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>143.6953511146599</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>611.7910214708218</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>312.8133471445368</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,10 +11305,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1043.074428213578</v>
+        <v>883.920771480625</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11317,7 +11317,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>618.848654609434</v>
@@ -11387,16 +11387,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.08890440473316</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>157.1544980906404</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>66.99327837971023</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>165.1019369951563</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>139.865980314921</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180516</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087104</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>11.99089387375871</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>68.15019490184628</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892123</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886531</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898733</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>43.18819094876669</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087104</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069273</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>68.15019490184628</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.5461237886751</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>3.849651004093943</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146989</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886531</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>135.1254485542575</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24651,10 +24651,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>100.5521570416583</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>71.98949189919244</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>108.9108341743201</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>219.8900101007968</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>71.98949189919247</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>23.75802357477917</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>52.69001940724831</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>59.53268633643488</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25836,10 +25836,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>154.8145808676391</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>167.4048439973642</v>
+        <v>94.38151236286006</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>549837.1162958462</v>
+        <v>549837.1162958463</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>549837.1162958462</v>
+        <v>549837.1162958463</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>549837.1162958462</v>
+        <v>549837.1162958463</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>549837.1162958464</v>
+        <v>549837.1162958462</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>549837.1162958463</v>
+        <v>549837.1162958462</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>549837.1162958463</v>
+        <v>549837.1162958462</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>549837.1162958464</v>
+        <v>549837.1162958462</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>549837.1162958464</v>
+        <v>549837.1162958462</v>
       </c>
     </row>
     <row r="16">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553320.5346106049</v>
+        <v>553320.5346106048</v>
       </c>
       <c r="C2" t="n">
-        <v>553320.5346106049</v>
+        <v>553320.5346106048</v>
       </c>
       <c r="D2" t="n">
-        <v>553320.5346106046</v>
+        <v>553320.534610605</v>
       </c>
       <c r="E2" t="n">
-        <v>533928.8829805749</v>
+        <v>533928.8829805747</v>
       </c>
       <c r="F2" t="n">
-        <v>533928.8829805747</v>
+        <v>533928.882980575</v>
       </c>
       <c r="G2" t="n">
         <v>533928.8829805749</v>
       </c>
       <c r="H2" t="n">
-        <v>533928.8829805749</v>
+        <v>533928.8829805746</v>
       </c>
       <c r="I2" t="n">
+        <v>533928.8829805751</v>
+      </c>
+      <c r="J2" t="n">
         <v>533928.8829805746</v>
-      </c>
-      <c r="J2" t="n">
-        <v>533928.8829805745</v>
       </c>
       <c r="K2" t="n">
         <v>533928.8829805749</v>
       </c>
       <c r="L2" t="n">
-        <v>533928.882980575</v>
+        <v>533928.8829805751</v>
       </c>
       <c r="M2" t="n">
         <v>533928.8829805747</v>
@@ -26352,10 +26352,10 @@
         <v>533928.8829805749</v>
       </c>
       <c r="O2" t="n">
-        <v>533928.8829805747</v>
+        <v>533928.8829805749</v>
       </c>
       <c r="P2" t="n">
-        <v>533928.882980575</v>
+        <v>533928.8829805746</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695909</v>
+        <v>162124.696069591</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361252</v>
+        <v>23406.8336736124</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802886</v>
+        <v>126577.2685802887</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035702003</v>
+        <v>18646.60035701988</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211246.6236465254</v>
+        <v>211246.6236465253</v>
       </c>
       <c r="C4" t="n">
         <v>199866.3919893415</v>
@@ -26426,19 +26426,19 @@
         <v>199866.3919893415</v>
       </c>
       <c r="E4" t="n">
-        <v>101012.8540458317</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="F4" t="n">
-        <v>101012.8540458317</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="G4" t="n">
-        <v>101012.8540458317</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="H4" t="n">
-        <v>101012.8540458317</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="I4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="J4" t="n">
         <v>101012.8540458319</v>
@@ -26459,7 +26459,7 @@
         <v>101012.8540458318</v>
       </c>
       <c r="P4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216119</v>
+        <v>63041.22282216122</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,28 +26478,28 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.0621884297</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.0621884297</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
+        <v>77750.06218842967</v>
+      </c>
+      <c r="H5" t="n">
         <v>77750.06218842969</v>
       </c>
-      <c r="H5" t="n">
-        <v>77750.06218842967</v>
-      </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
         <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
         <v>77750.06218842967</v>
@@ -26511,7 +26511,7 @@
         <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116907.9920723274</v>
+        <v>116907.9920723272</v>
       </c>
       <c r="C6" t="n">
         <v>262601.0579102227</v>
       </c>
       <c r="D6" t="n">
-        <v>286007.891583835</v>
+        <v>286007.8915838354</v>
       </c>
       <c r="E6" t="n">
-        <v>139426.6101896729</v>
+        <v>139375.5795274884</v>
       </c>
       <c r="F6" t="n">
-        <v>355165.9667463133</v>
+        <v>355114.9360841292</v>
       </c>
       <c r="G6" t="n">
-        <v>355165.9667463135</v>
+        <v>355114.9360841291</v>
       </c>
       <c r="H6" t="n">
-        <v>355165.9667463135</v>
+        <v>355114.9360841288</v>
       </c>
       <c r="I6" t="n">
-        <v>355165.9667463131</v>
+        <v>355114.9360841293</v>
       </c>
       <c r="J6" t="n">
-        <v>228588.6981660244</v>
+        <v>228537.6675038401</v>
       </c>
       <c r="K6" t="n">
-        <v>336519.3663892933</v>
+        <v>336468.3357271092</v>
       </c>
       <c r="L6" t="n">
-        <v>355165.9667463134</v>
+        <v>355114.9360841293</v>
       </c>
       <c r="M6" t="n">
-        <v>175102.0952911455</v>
+        <v>175051.0646289614</v>
       </c>
       <c r="N6" t="n">
-        <v>355165.9667463134</v>
+        <v>355114.9360841291</v>
       </c>
       <c r="O6" t="n">
-        <v>355165.9667463133</v>
+        <v>355114.9360841291</v>
       </c>
       <c r="P6" t="n">
-        <v>355165.9667463134</v>
+        <v>355114.9360841289</v>
       </c>
     </row>
   </sheetData>
@@ -26712,10 +26712,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539671</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539671</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162705</v>
+        <v>72.4511219616267</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572631</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539671</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162705</v>
+        <v>72.45112196162647</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572629</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539671</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162705</v>
+        <v>72.4511219616267</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572631</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>390.3743495457191</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>154.965084354215</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27539,16 +27539,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>77.5140246815364</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>8.78347701571245</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
+        <v>162.8640785093686</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>128.3161759654049</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>36.85370811560047</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27833,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>103.3684254741787</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>82.23069669041803</v>
+        <v>383.266097694709</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>199.2139870299421</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-4.498764579254604e-13</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-8.313350008393172e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,16 +34710,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>462.9969567069677</v>
+        <v>2.304553167389695</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539671</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539671</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34774,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7766911539671</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539671</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="M3" t="n">
-        <v>375.6271291446743</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539671</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>93.66335920376146</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0.01063771759477001</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>108.2599968491647</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34938,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>144.2794790315872</v>
-      </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>75.42597529544652</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>162.8199733981321</v>
-      </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35111,7 +35111,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968705</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35175,7 +35175,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>167.4878420635545</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>556.2278131155941</v>
@@ -35184,16 +35184,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>245.6677613624788</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
         <v>556.2278131155941</v>
@@ -35272,7 +35272,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>886.8993927061656</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>422.5024167557668</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.07204871127055</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>228.8157587937748</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
-        <v>358.272041711536</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>395.1371666366168</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N13" t="n">
-        <v>381.30455644044</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O13" t="n">
-        <v>359.0183117977403</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>293.5345574968695</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.2829598391533</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35655,22 +35655,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>734.964600335589</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>587.902602543405</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,10 +35740,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="P15" t="n">
-        <v>155.5823699702323</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.07204871127055</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>228.8157587937748</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>358.272041711536</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>395.1371666366168</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>381.30455644044</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>359.0183117977403</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>293.5345574968695</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>128.2829598391533</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>86.8003148788579</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35904,10 +35904,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>62.48282579338712</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>17.02841056777194</v>
       </c>
       <c r="M18" t="n">
         <v>1066.653068662672</v>
@@ -35977,13 +35977,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>58.07204871127055</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>228.8157587937748</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>358.272041711536</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>395.1371666366168</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>381.30455644044</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>359.0183117977403</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>293.5345574968695</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2829598391533</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>623.5228770382831</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36199,10 +36199,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>719.1172132785132</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.07204871127055</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>228.8157587937748</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>358.272041711536</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>395.1371666366168</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>381.30455644044</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>359.0183117977403</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>293.5345574968695</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2829598391533</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>324.5260868755249</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
@@ -36436,16 +36436,16 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>250.7519823203978</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>58.07204871127055</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>228.8157587937748</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
-        <v>358.272041711536</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
-        <v>395.1371666366168</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N25" t="n">
-        <v>381.30455644044</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O25" t="n">
-        <v>359.0183117977403</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P25" t="n">
-        <v>293.5345574968695</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>128.2829598391533</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36612,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36688,13 +36688,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.3921559610390808</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>82.84778796434657</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36843,19 +36843,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>333.1613907719469</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>230.9082963568903</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>86.80031487885702</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37083,10 +37083,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>574.2156596605904</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
@@ -37156,7 +37156,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>487.2320584543432</v>
+        <v>956.0658734672517</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,10 +37314,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>886.8993927061629</v>
+        <v>267.0533324336321</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>452.1971664929786</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>587.902602543405</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>404.8081827057618</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>50.0780745042379</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37794,16 +37794,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>106.3043917586358</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>574.2156596605904</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>291.4703189309951</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38025,10 +38025,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1005.643165314146</v>
+        <v>846.4895085811933</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38037,7 +38037,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>596.4494207761006</v>
@@ -38107,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q45" t="n">
-        <v>47.34186611575466</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>
